--- a/municipal/ENG/Education/Preschool and Education Institutions/Samtskhe-Javakheti/Adigeni.xlsx
+++ b/municipal/ENG/Education/Preschool and Education Institutions/Samtskhe-Javakheti/Adigeni.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\საბოლოო მაჩვენებლები\სოციალური ქარ. EN\Social Statistic\Preschool and Education Institutions\Satskhe-Javakheti\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\regions\municipal\ENG\Education\Preschool and Education Institutions\Samtskhe-Javakheti\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F819455-F16C-424C-9F24-D6EFD8F90981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="28740" yWindow="-60" windowWidth="28920" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Adigeni" sheetId="1" r:id="rId1"/>
@@ -112,10 +113,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="#\ ##0"/>
     <numFmt numFmtId="165" formatCode="#\ ##0.0"/>
+    <numFmt numFmtId="171" formatCode=".\ #;"/>
+    <numFmt numFmtId="175" formatCode="0.0"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -277,29 +280,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -321,40 +318,29 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -364,7 +350,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -372,6 +358,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="171" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="175" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -652,106 +650,102 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="8" customWidth="1"/>
-    <col min="3" max="12" width="12.7109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="6" customWidth="1"/>
+    <col min="3" max="12" width="12.7109375" style="2" customWidth="1"/>
     <col min="13" max="13" width="13" style="2" customWidth="1"/>
-    <col min="14" max="17" width="12" style="21" customWidth="1"/>
-    <col min="18" max="18" width="12" style="22" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="22"/>
+    <col min="14" max="18" width="12" style="16" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:18" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="20"/>
-    </row>
-    <row r="2" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+    </row>
+    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-    </row>
-    <row r="3" spans="1:28" s="24" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13" t="s">
+    </row>
+    <row r="3" spans="1:18" s="18" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-    </row>
-    <row r="4" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+    </row>
+    <row r="4" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="16">
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="14">
         <v>8</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="14">
         <v>9</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="14">
         <v>10</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="14">
         <v>10</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="14">
         <v>10</v>
       </c>
       <c r="I4" s="4"/>
@@ -760,30 +754,30 @@
       <c r="L4" s="4"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-    </row>
-    <row r="5" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+    </row>
+    <row r="5" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="16">
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="14">
         <v>476</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="14">
         <v>558</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="14">
         <v>588</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="14">
         <v>495</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="14">
         <v>480</v>
       </c>
       <c r="I5" s="4"/>
@@ -792,30 +786,30 @@
       <c r="L5" s="4"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
-    </row>
-    <row r="6" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+    </row>
+    <row r="6" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="16">
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="14">
         <v>28</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="14">
         <v>30</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="14">
         <v>36</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="14">
         <v>36</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="14">
         <v>37</v>
       </c>
       <c r="I6" s="4"/>
@@ -824,30 +818,30 @@
       <c r="L6" s="4"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
-    </row>
-    <row r="7" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+    </row>
+    <row r="7" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="16">
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="32">
         <v>17</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="29">
         <v>18.600000000000001</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="29">
         <v>16.333333333333332</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="29">
         <v>13.75</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="32">
         <v>12.972972972972974</v>
       </c>
       <c r="I7" s="4"/>
@@ -856,123 +850,84 @@
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="21"/>
-      <c r="X7" s="21"/>
-      <c r="Y7" s="21"/>
-      <c r="Z7" s="21"/>
-      <c r="AA7" s="21"/>
-      <c r="AB7" s="21"/>
-    </row>
-    <row r="8" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+    </row>
+    <row r="8" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="17">
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="30">
         <v>29.193498926709598</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="30">
         <v>34.340574804603364</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="30">
         <v>36.444775009297139</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="30">
         <v>30.760626398210292</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="30">
         <v>30.154542027892951</v>
       </c>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="21"/>
-      <c r="T8" s="21"/>
-      <c r="U8" s="21"/>
-      <c r="V8" s="21"/>
-      <c r="W8" s="21"/>
-      <c r="X8" s="21"/>
-      <c r="Y8" s="21"/>
-      <c r="Z8" s="21"/>
-      <c r="AA8" s="21"/>
-      <c r="AB8" s="21"/>
-    </row>
-    <row r="9" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+    </row>
+    <row r="9" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="19">
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="31">
         <v>2038.125</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="31">
         <v>1805.4444444444443</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="31">
         <v>1613.3999999999999</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="31">
         <v>1609.2</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="31">
         <v>1591.8</v>
       </c>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-    </row>
-    <row r="10" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="32" t="s">
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+    </row>
+    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-    </row>
-    <row r="11" spans="1:28" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="27"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+    </row>
+    <row r="11" spans="1:18" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/municipal/ENG/Education/Preschool and Education Institutions/Samtskhe-Javakheti/Adigeni.xlsx
+++ b/municipal/ENG/Education/Preschool and Education Institutions/Samtskhe-Javakheti/Adigeni.xlsx
@@ -1,31 +1,69 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\regions\municipal\ENG\Education\Preschool and Education Institutions\Samtskhe-Javakheti\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F819455-F16C-424C-9F24-D6EFD8F90981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28740" yWindow="-60" windowWidth="28920" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19185" windowHeight="12060"/>
   </bookViews>
   <sheets>
     <sheet name="Adigeni" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> The number of PEC Institutions in Adigeni</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>municipality</t>
+    </r>
+  </si>
+  <si>
+    <t>(At the beginning of school year)</t>
+  </si>
   <si>
     <t>2017/2018</t>
   </si>
@@ -42,34 +80,10 @@
     <t>2021/2022</t>
   </si>
   <si>
-    <t>(At the beginning of school year)</t>
+    <t>2022/2023</t>
   </si>
   <si>
-    <t>The average number of children per caregiver-pedagogue in public preschool education and care institutions</t>
-  </si>
-  <si>
-    <t>The number of children involved in PEC services per 1000 people</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Actually operating institutions during the accounting period.</t>
-    </r>
+    <t>2023/2024</t>
   </si>
   <si>
     <t>The number of PEC Institutions (unit)</t>
@@ -81,138 +95,285 @@
     <t>The number of caregiver-pedagogues/caregivers/assistant caregivers/Inclusive education special teachers (persons)</t>
   </si>
   <si>
+    <t>The average number of children per caregiver-pedagogue in public preschool education and care institutions</t>
+  </si>
+  <si>
+    <t>The number of children involved in PEC services per 1000 people</t>
+  </si>
+  <si>
     <t>Number of residents in the municipality per preschool institution (persons)</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve"> The number of PEC Institutions in Adigeni</t>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1)</t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
+        <sz val="9"/>
+        <color indexed="8"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>municipality</t>
+      <t>Actually operating institutions during the accounting period.</t>
     </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="#\ ##0"/>
-    <numFmt numFmtId="165" formatCode="#\ ##0.0"/>
-    <numFmt numFmtId="171" formatCode=".\ #;"/>
-    <numFmt numFmtId="175" formatCode="0.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="#\ ##0"/>
+    <numFmt numFmtId="179" formatCode="#\ ##0.0"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Sylfaen"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Sylfaen"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Sylfaen"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Sylfaen"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Sylfaen"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Sylfaen"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Sylfaen"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Sylfaen"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <vertAlign val="superscript"/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <vertAlign val="superscript"/>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -225,8 +386,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -239,20 +586,20 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -260,10 +607,10 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -271,118 +618,407 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="178" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="171" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="175" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -431,7 +1067,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -466,7 +1102,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -640,99 +1276,99 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="6" customWidth="1"/>
-    <col min="3" max="12" width="12.7109375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="13" style="2" customWidth="1"/>
-    <col min="14" max="18" width="12" style="16" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="16"/>
+    <col min="1" max="1" width="37.7142857142857" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.7142857142857" style="3" customWidth="1"/>
+    <col min="3" max="10" width="10.7142857142857" style="4" customWidth="1"/>
+    <col min="11" max="12" width="12.7142857142857" style="4" customWidth="1"/>
+    <col min="13" max="13" width="13" style="4" customWidth="1"/>
+    <col min="14" max="18" width="12" style="5" customWidth="1"/>
+    <col min="19" max="16384" width="9.14285714285714" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
+    <row r="1" ht="39" customHeight="1" spans="1:13">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
     </row>
-    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="1"/>
+    <row r="2" customHeight="1" spans="1:9">
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="24"/>
     </row>
-    <row r="3" spans="1:18" s="18" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="7"/>
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
       <c r="C3" s="10"/>
       <c r="D3" s="11" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
+        <v>6</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
     </row>
-    <row r="4" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+    <row r="4" ht="30" customHeight="1" spans="1:18">
+      <c r="A4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
       <c r="D4" s="14">
         <v>8</v>
       </c>
@@ -748,23 +1384,27 @@
       <c r="H4" s="14">
         <v>10</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
+      <c r="I4" s="14">
+        <v>11</v>
+      </c>
+      <c r="J4" s="14">
+        <v>11</v>
+      </c>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
     </row>
-    <row r="5" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+    <row r="5" ht="30" customHeight="1" spans="1:18">
+      <c r="A5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
       <c r="D5" s="14">
         <v>476</v>
       </c>
@@ -780,23 +1420,27 @@
       <c r="H5" s="14">
         <v>480</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
+      <c r="I5" s="14">
+        <v>483</v>
+      </c>
+      <c r="J5" s="14">
+        <v>460</v>
+      </c>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29"/>
     </row>
-    <row r="6" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+    <row r="6" ht="30" customHeight="1" spans="1:18">
+      <c r="A6" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
       <c r="D6" s="14">
         <v>28</v>
       </c>
@@ -812,137 +1456,153 @@
       <c r="H6" s="14">
         <v>37</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
+      <c r="I6" s="14">
+        <v>41</v>
+      </c>
+      <c r="J6" s="30">
+        <v>41</v>
+      </c>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
     </row>
-    <row r="7" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="32">
+    <row r="7" ht="30" customHeight="1" spans="1:18">
+      <c r="A7" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="16">
         <v>17</v>
       </c>
-      <c r="E7" s="29">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="F7" s="29">
-        <v>16.333333333333332</v>
-      </c>
-      <c r="G7" s="29">
+      <c r="E7" s="16">
+        <v>18.6</v>
+      </c>
+      <c r="F7" s="16">
+        <v>16.3333333333333</v>
+      </c>
+      <c r="G7" s="16">
         <v>13.75</v>
       </c>
-      <c r="H7" s="32">
-        <v>12.972972972972974</v>
-      </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
+      <c r="H7" s="16">
+        <v>12.972972972973</v>
+      </c>
+      <c r="I7" s="16">
+        <v>11.780487804878</v>
+      </c>
+      <c r="J7" s="16">
+        <v>11.2</v>
+      </c>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="31"/>
     </row>
-    <row r="8" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="30">
-        <v>29.193498926709598</v>
-      </c>
-      <c r="E8" s="30">
-        <v>34.340574804603364</v>
-      </c>
-      <c r="F8" s="30">
-        <v>36.444775009297139</v>
-      </c>
-      <c r="G8" s="30">
-        <v>30.760626398210292</v>
-      </c>
-      <c r="H8" s="30">
-        <v>30.154542027892951</v>
-      </c>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
+    <row r="8" ht="30" customHeight="1" spans="1:12">
+      <c r="A8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="17">
+        <v>29.1934989267096</v>
+      </c>
+      <c r="E8" s="17">
+        <v>34.3405748046034</v>
+      </c>
+      <c r="F8" s="17">
+        <v>36.4447750092971</v>
+      </c>
+      <c r="G8" s="17">
+        <v>30.7606263982103</v>
+      </c>
+      <c r="H8" s="17">
+        <v>30.154542027893</v>
+      </c>
+      <c r="I8" s="17">
+        <v>30.3525419468359</v>
+      </c>
+      <c r="J8" s="16">
+        <v>29.1730086250634</v>
+      </c>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
     </row>
-    <row r="9" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="31">
+    <row r="9" ht="30" customHeight="1" spans="1:12">
+      <c r="A9" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="19">
         <v>2038.125</v>
       </c>
-      <c r="E9" s="31">
-        <v>1805.4444444444443</v>
-      </c>
-      <c r="F9" s="31">
-        <v>1613.3999999999999</v>
-      </c>
-      <c r="G9" s="31">
+      <c r="E9" s="19">
+        <v>1805.44444444444</v>
+      </c>
+      <c r="F9" s="19">
+        <v>1613.4</v>
+      </c>
+      <c r="G9" s="19">
         <v>1609.2</v>
       </c>
-      <c r="H9" s="31">
+      <c r="H9" s="19">
         <v>1591.8</v>
       </c>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
+      <c r="I9" s="19">
+        <v>1446.63636363636</v>
+      </c>
+      <c r="J9" s="33">
+        <v>1433.45454545455</v>
+      </c>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
     </row>
-    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
+    <row r="10" customHeight="1" spans="1:3">
+      <c r="A10" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
     </row>
-    <row r="11" spans="1:18" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
+    <row r="11" s="2" customFormat="1" spans="1:13">
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:E11"/>
+  <mergeCells count="9">
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:E11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>